--- a/config_12.08/item_config.xlsx
+++ b/config_12.08/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.01\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1184" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="780">
   <si>
     <t>id|行号</t>
   </si>
@@ -3050,6 +3050,22 @@
   </si>
   <si>
     <t>prop_fishbowl_stars</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhhl_iocn_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒道具</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3128,7 +3144,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3168,6 +3184,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3214,7 +3236,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3300,6 +3322,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3580,11 +3608,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q281"/>
+  <dimension ref="A1:Q282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A83" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N97" sqref="N97"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J282" sqref="J282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13089,6 +13117,38 @@
         <v>16</v>
       </c>
     </row>
+    <row r="282" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A282" s="29">
+        <v>281</v>
+      </c>
+      <c r="B282" s="29">
+        <v>281</v>
+      </c>
+      <c r="C282" s="30" t="s">
+        <v>777</v>
+      </c>
+      <c r="D282" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E282" s="29">
+        <v>1</v>
+      </c>
+      <c r="F282" s="30" t="s">
+        <v>778</v>
+      </c>
+      <c r="G282" s="29">
+        <v>0</v>
+      </c>
+      <c r="H282" s="29">
+        <v>33</v>
+      </c>
+      <c r="I282" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="J282" s="30" t="s">
+        <v>779</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.08/item_config.xlsx
+++ b/config_12.08/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1188" uniqueCount="780">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="783">
   <si>
     <t>id|行号</t>
   </si>
@@ -3066,6 +3066,18 @@
   </si>
   <si>
     <t>双十二礼盒道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_cjq</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3608,11 +3620,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q282"/>
+  <dimension ref="A1:Q283"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J282" sqref="J282"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C283" sqref="C283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -13149,6 +13161,38 @@
         <v>779</v>
       </c>
     </row>
+    <row r="283" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A283" s="29">
+        <v>282</v>
+      </c>
+      <c r="B283" s="29">
+        <v>282</v>
+      </c>
+      <c r="C283" s="30" t="s">
+        <v>782</v>
+      </c>
+      <c r="D283" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E283" s="29">
+        <v>1</v>
+      </c>
+      <c r="F283" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="G283" s="29">
+        <v>0</v>
+      </c>
+      <c r="H283" s="29">
+        <v>33</v>
+      </c>
+      <c r="I283" s="29" t="s">
+        <v>780</v>
+      </c>
+      <c r="J283" s="29" t="s">
+        <v>781</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/config_12.08/item_config.xlsx
+++ b/config_12.08/item_config.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1192" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="822">
   <si>
     <t>id|行号</t>
   </si>
@@ -3042,42 +3042,168 @@
     <t>prop_fishbowl_fry30</t>
   </si>
   <si>
+    <t>prop_fishbowl_fry_fragment1</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_stars</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>礼盒掉落物</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dhhl_iocn_lh</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二礼盒道具</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双十二抽奖券</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_xx</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_sl</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_jlyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>szg_iocn_gjjlyb</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu29</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu27</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu28</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu36</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu31</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu32</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu48</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu30</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu43</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu47</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu34</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu33</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu35</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu46</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu22</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu50</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu23</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu25</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu20</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu51</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu24</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu21</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu14</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu56</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu49</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu38</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu40</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu39</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu4</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu12</t>
+  </si>
+  <si>
+    <t>3dby_icon_yu37</t>
+  </si>
+  <si>
     <t>prop_fishbowl_fry31</t>
-  </si>
-  <si>
-    <t>prop_fishbowl_fry_fragment1</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_fishbowl_stars</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>礼盒掉落物</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_12_12_lh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dhhl_iocn_lh</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二礼盒道具</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双十二抽奖券</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>prop_12_12_cjq</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_yu58</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fry_fragment32</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fishbowl_fish32</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -3620,11 +3746,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:Q283"/>
+  <dimension ref="A1:Q286"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N157" sqref="N157:N171"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A264" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F253" sqref="F253:F284"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -9787,7 +9913,7 @@
         <v>184</v>
       </c>
       <c r="C185" s="28" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="D185" s="27">
         <v>-1</v>
@@ -9796,7 +9922,7 @@
         <v>1</v>
       </c>
       <c r="F185" s="27" t="s">
-        <v>658</v>
+        <v>782</v>
       </c>
       <c r="G185" s="27">
         <v>1</v>
@@ -9830,8 +9956,8 @@
       <c r="E186" s="27">
         <v>1</v>
       </c>
-      <c r="F186" s="27" t="s">
-        <v>658</v>
+      <c r="F186" s="28" t="s">
+        <v>783</v>
       </c>
       <c r="G186" s="27">
         <v>1</v>
@@ -9865,8 +9991,8 @@
       <c r="E187" s="27">
         <v>1</v>
       </c>
-      <c r="F187" s="27" t="s">
-        <v>658</v>
+      <c r="F187" s="28" t="s">
+        <v>784</v>
       </c>
       <c r="G187" s="27">
         <v>1</v>
@@ -9900,8 +10026,8 @@
       <c r="E188" s="27">
         <v>1</v>
       </c>
-      <c r="F188" s="27" t="s">
-        <v>658</v>
+      <c r="F188" s="28" t="s">
+        <v>785</v>
       </c>
       <c r="G188" s="27">
         <v>1</v>
@@ -9935,8 +10061,8 @@
       <c r="E189" s="27">
         <v>1</v>
       </c>
-      <c r="F189" s="27" t="s">
-        <v>658</v>
+      <c r="F189" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G189" s="27">
         <v>1</v>
@@ -9971,7 +10097,7 @@
         <v>1</v>
       </c>
       <c r="F190" s="27" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="G190" s="27">
         <v>1</v>
@@ -10006,7 +10132,7 @@
         <v>1</v>
       </c>
       <c r="F191" s="27" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="G191" s="27">
         <v>1</v>
@@ -10041,7 +10167,7 @@
         <v>1</v>
       </c>
       <c r="F192" s="27" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
       <c r="G192" s="27">
         <v>1</v>
@@ -10076,7 +10202,7 @@
         <v>1</v>
       </c>
       <c r="F193" s="27" t="s">
-        <v>658</v>
+        <v>790</v>
       </c>
       <c r="G193" s="27">
         <v>1</v>
@@ -10111,7 +10237,7 @@
         <v>1</v>
       </c>
       <c r="F194" s="27" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="G194" s="27">
         <v>1</v>
@@ -10146,7 +10272,7 @@
         <v>1</v>
       </c>
       <c r="F195" s="27" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G195" s="27">
         <v>1</v>
@@ -10181,7 +10307,7 @@
         <v>1</v>
       </c>
       <c r="F196" s="27" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="G196" s="27">
         <v>1</v>
@@ -10216,7 +10342,7 @@
         <v>1</v>
       </c>
       <c r="F197" s="27" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
       <c r="G197" s="27">
         <v>1</v>
@@ -10251,7 +10377,7 @@
         <v>1</v>
       </c>
       <c r="F198" s="27" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="G198" s="27">
         <v>1</v>
@@ -10286,7 +10412,7 @@
         <v>1</v>
       </c>
       <c r="F199" s="27" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="G199" s="27">
         <v>1</v>
@@ -10321,7 +10447,7 @@
         <v>1</v>
       </c>
       <c r="F200" s="27" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="G200" s="27">
         <v>1</v>
@@ -10356,7 +10482,7 @@
         <v>1</v>
       </c>
       <c r="F201" s="27" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="G201" s="27">
         <v>1</v>
@@ -10391,7 +10517,7 @@
         <v>1</v>
       </c>
       <c r="F202" s="27" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="G202" s="27">
         <v>1</v>
@@ -10426,7 +10552,7 @@
         <v>1</v>
       </c>
       <c r="F203" s="27" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="G203" s="27">
         <v>1</v>
@@ -10461,7 +10587,7 @@
         <v>1</v>
       </c>
       <c r="F204" s="27" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="G204" s="27">
         <v>1</v>
@@ -10496,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="F205" s="27" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
       <c r="G205" s="27">
         <v>1</v>
@@ -10531,7 +10657,7 @@
         <v>1</v>
       </c>
       <c r="F206" s="27" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="G206" s="27">
         <v>1</v>
@@ -10566,7 +10692,7 @@
         <v>1</v>
       </c>
       <c r="F207" s="27" t="s">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="G207" s="27">
         <v>1</v>
@@ -10601,7 +10727,7 @@
         <v>1</v>
       </c>
       <c r="F208" s="27" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="G208" s="27">
         <v>1</v>
@@ -10636,7 +10762,7 @@
         <v>1</v>
       </c>
       <c r="F209" s="27" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G209" s="27">
         <v>1</v>
@@ -10671,7 +10797,7 @@
         <v>1</v>
       </c>
       <c r="F210" s="27" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="G210" s="27">
         <v>1</v>
@@ -10706,7 +10832,7 @@
         <v>1</v>
       </c>
       <c r="F211" s="27" t="s">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="G211" s="27">
         <v>1</v>
@@ -10741,7 +10867,7 @@
         <v>1</v>
       </c>
       <c r="F212" s="27" t="s">
-        <v>658</v>
+        <v>809</v>
       </c>
       <c r="G212" s="27">
         <v>1</v>
@@ -10776,7 +10902,7 @@
         <v>1</v>
       </c>
       <c r="F213" s="27" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="G213" s="27">
         <v>1</v>
@@ -10811,7 +10937,7 @@
         <v>1</v>
       </c>
       <c r="F214" s="27" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="G214" s="27">
         <v>1</v>
@@ -10846,7 +10972,7 @@
         <v>1</v>
       </c>
       <c r="F215" s="27" t="s">
-        <v>658</v>
+        <v>812</v>
       </c>
       <c r="G215" s="27">
         <v>1</v>
@@ -10881,7 +11007,7 @@
         <v>1</v>
       </c>
       <c r="F216" s="27" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="G216" s="27">
         <v>1</v>
@@ -10916,7 +11042,7 @@
         <v>1</v>
       </c>
       <c r="F217" s="27" t="s">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="G217" s="27">
         <v>1</v>
@@ -10951,7 +11077,7 @@
         <v>1</v>
       </c>
       <c r="F218" s="27" t="s">
-        <v>658</v>
+        <v>815</v>
       </c>
       <c r="G218" s="27">
         <v>1</v>
@@ -10977,7 +11103,7 @@
         <v>218</v>
       </c>
       <c r="C219" s="28" t="s">
-        <v>773</v>
+        <v>817</v>
       </c>
       <c r="D219" s="27">
         <v>-1</v>
@@ -10986,7 +11112,7 @@
         <v>1</v>
       </c>
       <c r="F219" s="27" t="s">
-        <v>658</v>
+        <v>816</v>
       </c>
       <c r="G219" s="27">
         <v>1</v>
@@ -11012,7 +11138,7 @@
         <v>219</v>
       </c>
       <c r="C220" s="28" t="s">
-        <v>774</v>
+        <v>818</v>
       </c>
       <c r="D220" s="27">
         <v>-1</v>
@@ -11020,20 +11146,20 @@
       <c r="E220" s="27">
         <v>1</v>
       </c>
-      <c r="F220" s="27" t="s">
-        <v>658</v>
+      <c r="F220" s="28" t="s">
+        <v>819</v>
       </c>
       <c r="G220" s="27">
         <v>1</v>
       </c>
       <c r="H220" s="27">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="I220" s="28" t="s">
-        <v>677</v>
+        <v>683</v>
       </c>
       <c r="J220" s="28" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="N220" s="27">
         <v>16</v>
@@ -11046,8 +11172,8 @@
       <c r="B221" s="27">
         <v>220</v>
       </c>
-      <c r="C221" s="27" t="s">
-        <v>714</v>
+      <c r="C221" s="28" t="s">
+        <v>773</v>
       </c>
       <c r="D221" s="27">
         <v>-1</v>
@@ -11055,14 +11181,14 @@
       <c r="E221" s="27">
         <v>1</v>
       </c>
-      <c r="F221" s="27" t="s">
-        <v>658</v>
+      <c r="F221" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G221" s="27">
         <v>1</v>
       </c>
       <c r="H221" s="27">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I221" s="28" t="s">
         <v>677</v>
@@ -11082,7 +11208,7 @@
         <v>221</v>
       </c>
       <c r="C222" s="27" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="D222" s="27">
         <v>-1</v>
@@ -11091,13 +11217,13 @@
         <v>1</v>
       </c>
       <c r="F222" s="27" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="G222" s="27">
         <v>1</v>
       </c>
       <c r="H222" s="27">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I222" s="28" t="s">
         <v>677</v>
@@ -11117,7 +11243,7 @@
         <v>222</v>
       </c>
       <c r="C223" s="27" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D223" s="27">
         <v>-1</v>
@@ -11126,13 +11252,13 @@
         <v>1</v>
       </c>
       <c r="F223" s="27" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="G223" s="27">
         <v>1</v>
       </c>
       <c r="H223" s="27">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I223" s="28" t="s">
         <v>677</v>
@@ -11152,7 +11278,7 @@
         <v>223</v>
       </c>
       <c r="C224" s="27" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D224" s="27">
         <v>-1</v>
@@ -11161,13 +11287,13 @@
         <v>1</v>
       </c>
       <c r="F224" s="27" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
       <c r="G224" s="27">
         <v>1</v>
       </c>
       <c r="H224" s="27">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I224" s="28" t="s">
         <v>677</v>
@@ -11187,7 +11313,7 @@
         <v>224</v>
       </c>
       <c r="C225" s="27" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D225" s="27">
         <v>-1</v>
@@ -11196,13 +11322,13 @@
         <v>1</v>
       </c>
       <c r="F225" s="27" t="s">
-        <v>658</v>
+        <v>790</v>
       </c>
       <c r="G225" s="27">
         <v>1</v>
       </c>
       <c r="H225" s="27">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I225" s="28" t="s">
         <v>677</v>
@@ -11222,7 +11348,7 @@
         <v>225</v>
       </c>
       <c r="C226" s="27" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D226" s="27">
         <v>-1</v>
@@ -11231,13 +11357,13 @@
         <v>1</v>
       </c>
       <c r="F226" s="27" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="G226" s="27">
         <v>1</v>
       </c>
       <c r="H226" s="27">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I226" s="28" t="s">
         <v>677</v>
@@ -11257,7 +11383,7 @@
         <v>226</v>
       </c>
       <c r="C227" s="27" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="D227" s="27">
         <v>-1</v>
@@ -11266,13 +11392,13 @@
         <v>1</v>
       </c>
       <c r="F227" s="27" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G227" s="27">
         <v>1</v>
       </c>
       <c r="H227" s="27">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I227" s="28" t="s">
         <v>677</v>
@@ -11292,7 +11418,7 @@
         <v>227</v>
       </c>
       <c r="C228" s="27" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="D228" s="27">
         <v>-1</v>
@@ -11301,13 +11427,13 @@
         <v>1</v>
       </c>
       <c r="F228" s="27" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="G228" s="27">
         <v>1</v>
       </c>
       <c r="H228" s="27">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I228" s="28" t="s">
         <v>677</v>
@@ -11327,7 +11453,7 @@
         <v>228</v>
       </c>
       <c r="C229" s="27" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="D229" s="27">
         <v>-1</v>
@@ -11336,13 +11462,13 @@
         <v>1</v>
       </c>
       <c r="F229" s="27" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
       <c r="G229" s="27">
         <v>1</v>
       </c>
       <c r="H229" s="27">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I229" s="28" t="s">
         <v>677</v>
@@ -11362,7 +11488,7 @@
         <v>229</v>
       </c>
       <c r="C230" s="27" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="D230" s="27">
         <v>-1</v>
@@ -11371,13 +11497,13 @@
         <v>1</v>
       </c>
       <c r="F230" s="27" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="G230" s="27">
         <v>1</v>
       </c>
       <c r="H230" s="27">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I230" s="28" t="s">
         <v>677</v>
@@ -11397,7 +11523,7 @@
         <v>230</v>
       </c>
       <c r="C231" s="27" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D231" s="27">
         <v>-1</v>
@@ -11406,13 +11532,13 @@
         <v>1</v>
       </c>
       <c r="F231" s="27" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="G231" s="27">
         <v>1</v>
       </c>
       <c r="H231" s="27">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I231" s="28" t="s">
         <v>677</v>
@@ -11432,7 +11558,7 @@
         <v>231</v>
       </c>
       <c r="C232" s="27" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D232" s="27">
         <v>-1</v>
@@ -11441,13 +11567,13 @@
         <v>1</v>
       </c>
       <c r="F232" s="27" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="G232" s="27">
         <v>1</v>
       </c>
       <c r="H232" s="27">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I232" s="28" t="s">
         <v>677</v>
@@ -11467,7 +11593,7 @@
         <v>232</v>
       </c>
       <c r="C233" s="27" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D233" s="27">
         <v>-1</v>
@@ -11476,13 +11602,13 @@
         <v>1</v>
       </c>
       <c r="F233" s="27" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="G233" s="27">
         <v>1</v>
       </c>
       <c r="H233" s="27">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I233" s="28" t="s">
         <v>677</v>
@@ -11502,7 +11628,7 @@
         <v>233</v>
       </c>
       <c r="C234" s="27" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D234" s="27">
         <v>-1</v>
@@ -11511,13 +11637,13 @@
         <v>1</v>
       </c>
       <c r="F234" s="27" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="G234" s="27">
         <v>1</v>
       </c>
       <c r="H234" s="27">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I234" s="28" t="s">
         <v>677</v>
@@ -11537,7 +11663,7 @@
         <v>234</v>
       </c>
       <c r="C235" s="27" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D235" s="27">
         <v>-1</v>
@@ -11546,13 +11672,13 @@
         <v>1</v>
       </c>
       <c r="F235" s="27" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="G235" s="27">
         <v>1</v>
       </c>
       <c r="H235" s="27">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I235" s="28" t="s">
         <v>677</v>
@@ -11572,7 +11698,7 @@
         <v>235</v>
       </c>
       <c r="C236" s="27" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D236" s="27">
         <v>-1</v>
@@ -11581,13 +11707,13 @@
         <v>1</v>
       </c>
       <c r="F236" s="27" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="G236" s="27">
         <v>1</v>
       </c>
       <c r="H236" s="27">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I236" s="28" t="s">
         <v>677</v>
@@ -11607,7 +11733,7 @@
         <v>236</v>
       </c>
       <c r="C237" s="27" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D237" s="27">
         <v>-1</v>
@@ -11616,13 +11742,13 @@
         <v>1</v>
       </c>
       <c r="F237" s="27" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
       <c r="G237" s="27">
         <v>1</v>
       </c>
       <c r="H237" s="27">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I237" s="28" t="s">
         <v>677</v>
@@ -11642,7 +11768,7 @@
         <v>237</v>
       </c>
       <c r="C238" s="27" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="D238" s="27">
         <v>-1</v>
@@ -11651,13 +11777,13 @@
         <v>1</v>
       </c>
       <c r="F238" s="27" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="G238" s="27">
         <v>1</v>
       </c>
       <c r="H238" s="27">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I238" s="28" t="s">
         <v>677</v>
@@ -11677,7 +11803,7 @@
         <v>238</v>
       </c>
       <c r="C239" s="27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D239" s="27">
         <v>-1</v>
@@ -11686,13 +11812,13 @@
         <v>1</v>
       </c>
       <c r="F239" s="27" t="s">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="G239" s="27">
         <v>1</v>
       </c>
       <c r="H239" s="27">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I239" s="28" t="s">
         <v>677</v>
@@ -11712,7 +11838,7 @@
         <v>239</v>
       </c>
       <c r="C240" s="27" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="D240" s="27">
         <v>-1</v>
@@ -11721,13 +11847,13 @@
         <v>1</v>
       </c>
       <c r="F240" s="27" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="G240" s="27">
         <v>1</v>
       </c>
       <c r="H240" s="27">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I240" s="28" t="s">
         <v>677</v>
@@ -11747,7 +11873,7 @@
         <v>240</v>
       </c>
       <c r="C241" s="27" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D241" s="27">
         <v>-1</v>
@@ -11756,13 +11882,13 @@
         <v>1</v>
       </c>
       <c r="F241" s="27" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G241" s="27">
         <v>1</v>
       </c>
       <c r="H241" s="27">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I241" s="28" t="s">
         <v>677</v>
@@ -11782,7 +11908,7 @@
         <v>241</v>
       </c>
       <c r="C242" s="27" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D242" s="27">
         <v>-1</v>
@@ -11791,13 +11917,13 @@
         <v>1</v>
       </c>
       <c r="F242" s="27" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="G242" s="27">
         <v>1</v>
       </c>
       <c r="H242" s="27">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I242" s="28" t="s">
         <v>677</v>
@@ -11817,7 +11943,7 @@
         <v>242</v>
       </c>
       <c r="C243" s="27" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="D243" s="27">
         <v>-1</v>
@@ -11826,13 +11952,13 @@
         <v>1</v>
       </c>
       <c r="F243" s="27" t="s">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="G243" s="27">
         <v>1</v>
       </c>
       <c r="H243" s="27">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I243" s="28" t="s">
         <v>677</v>
@@ -11852,7 +11978,7 @@
         <v>243</v>
       </c>
       <c r="C244" s="27" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D244" s="27">
         <v>-1</v>
@@ -11861,13 +11987,13 @@
         <v>1</v>
       </c>
       <c r="F244" s="27" t="s">
-        <v>658</v>
+        <v>809</v>
       </c>
       <c r="G244" s="27">
         <v>1</v>
       </c>
       <c r="H244" s="27">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I244" s="28" t="s">
         <v>677</v>
@@ -11887,7 +12013,7 @@
         <v>244</v>
       </c>
       <c r="C245" s="27" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="D245" s="27">
         <v>-1</v>
@@ -11896,13 +12022,13 @@
         <v>1</v>
       </c>
       <c r="F245" s="27" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="G245" s="27">
         <v>1</v>
       </c>
       <c r="H245" s="27">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="I245" s="28" t="s">
         <v>677</v>
@@ -11922,7 +12048,7 @@
         <v>245</v>
       </c>
       <c r="C246" s="27" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D246" s="27">
         <v>-1</v>
@@ -11931,13 +12057,13 @@
         <v>1</v>
       </c>
       <c r="F246" s="27" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="G246" s="27">
         <v>1</v>
       </c>
       <c r="H246" s="27">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I246" s="28" t="s">
         <v>677</v>
@@ -11957,7 +12083,7 @@
         <v>246</v>
       </c>
       <c r="C247" s="27" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="D247" s="27">
         <v>-1</v>
@@ -11966,13 +12092,13 @@
         <v>1</v>
       </c>
       <c r="F247" s="27" t="s">
-        <v>658</v>
+        <v>812</v>
       </c>
       <c r="G247" s="27">
         <v>1</v>
       </c>
       <c r="H247" s="27">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I247" s="28" t="s">
         <v>677</v>
@@ -11992,7 +12118,7 @@
         <v>247</v>
       </c>
       <c r="C248" s="27" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D248" s="27">
         <v>-1</v>
@@ -12001,13 +12127,13 @@
         <v>1</v>
       </c>
       <c r="F248" s="27" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="G248" s="27">
         <v>1</v>
       </c>
       <c r="H248" s="27">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I248" s="28" t="s">
         <v>677</v>
@@ -12027,7 +12153,7 @@
         <v>248</v>
       </c>
       <c r="C249" s="27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="D249" s="27">
         <v>-1</v>
@@ -12036,13 +12162,13 @@
         <v>1</v>
       </c>
       <c r="F249" s="27" t="s">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="G249" s="27">
         <v>1</v>
       </c>
       <c r="H249" s="27">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I249" s="28" t="s">
         <v>677</v>
@@ -12062,7 +12188,7 @@
         <v>249</v>
       </c>
       <c r="C250" s="27" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="D250" s="27">
         <v>-1</v>
@@ -12071,13 +12197,13 @@
         <v>1</v>
       </c>
       <c r="F250" s="27" t="s">
-        <v>658</v>
+        <v>815</v>
       </c>
       <c r="G250" s="27">
         <v>1</v>
       </c>
       <c r="H250" s="27">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I250" s="28" t="s">
         <v>677</v>
@@ -12096,8 +12222,8 @@
       <c r="B251" s="27">
         <v>250</v>
       </c>
-      <c r="C251" s="28" t="s">
-        <v>667</v>
+      <c r="C251" s="27" t="s">
+        <v>743</v>
       </c>
       <c r="D251" s="27">
         <v>-1</v>
@@ -12106,19 +12232,19 @@
         <v>1</v>
       </c>
       <c r="F251" s="27" t="s">
-        <v>658</v>
+        <v>816</v>
       </c>
       <c r="G251" s="27">
         <v>1</v>
       </c>
       <c r="H251" s="27">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I251" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J251" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N251" s="27">
         <v>16</v>
@@ -12132,7 +12258,7 @@
         <v>251</v>
       </c>
       <c r="C252" s="28" t="s">
-        <v>684</v>
+        <v>820</v>
       </c>
       <c r="D252" s="27">
         <v>-1</v>
@@ -12140,20 +12266,20 @@
       <c r="E252" s="27">
         <v>1</v>
       </c>
-      <c r="F252" s="27" t="s">
-        <v>658</v>
+      <c r="F252" s="28" t="s">
+        <v>819</v>
       </c>
       <c r="G252" s="27">
         <v>1</v>
       </c>
       <c r="H252" s="27">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="I252" s="28" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="J252" s="28" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="N252" s="27">
         <v>16</v>
@@ -12167,7 +12293,7 @@
         <v>252</v>
       </c>
       <c r="C253" s="28" t="s">
-        <v>685</v>
+        <v>667</v>
       </c>
       <c r="D253" s="27">
         <v>-1</v>
@@ -12175,14 +12301,14 @@
       <c r="E253" s="27">
         <v>1</v>
       </c>
-      <c r="F253" s="27" t="s">
-        <v>658</v>
+      <c r="F253" s="28" t="s">
+        <v>787</v>
       </c>
       <c r="G253" s="27">
         <v>1</v>
       </c>
       <c r="H253" s="27">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="I253" s="28" t="s">
         <v>678</v>
@@ -12202,7 +12328,7 @@
         <v>253</v>
       </c>
       <c r="C254" s="28" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D254" s="27">
         <v>-1</v>
@@ -12211,13 +12337,13 @@
         <v>1</v>
       </c>
       <c r="F254" s="27" t="s">
-        <v>658</v>
+        <v>788</v>
       </c>
       <c r="G254" s="27">
         <v>1</v>
       </c>
       <c r="H254" s="27">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I254" s="28" t="s">
         <v>678</v>
@@ -12237,7 +12363,7 @@
         <v>254</v>
       </c>
       <c r="C255" s="28" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D255" s="27">
         <v>-1</v>
@@ -12246,13 +12372,13 @@
         <v>1</v>
       </c>
       <c r="F255" s="27" t="s">
-        <v>658</v>
+        <v>786</v>
       </c>
       <c r="G255" s="27">
         <v>1</v>
       </c>
       <c r="H255" s="27">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I255" s="28" t="s">
         <v>678</v>
@@ -12272,7 +12398,7 @@
         <v>255</v>
       </c>
       <c r="C256" s="28" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D256" s="27">
         <v>-1</v>
@@ -12281,13 +12407,13 @@
         <v>1</v>
       </c>
       <c r="F256" s="27" t="s">
-        <v>658</v>
+        <v>789</v>
       </c>
       <c r="G256" s="27">
         <v>1</v>
       </c>
       <c r="H256" s="27">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="I256" s="28" t="s">
         <v>678</v>
@@ -12307,7 +12433,7 @@
         <v>256</v>
       </c>
       <c r="C257" s="28" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="D257" s="27">
         <v>-1</v>
@@ -12316,13 +12442,13 @@
         <v>1</v>
       </c>
       <c r="F257" s="27" t="s">
-        <v>658</v>
+        <v>790</v>
       </c>
       <c r="G257" s="27">
         <v>1</v>
       </c>
       <c r="H257" s="27">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="I257" s="28" t="s">
         <v>678</v>
@@ -12342,7 +12468,7 @@
         <v>257</v>
       </c>
       <c r="C258" s="28" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="D258" s="27">
         <v>-1</v>
@@ -12351,13 +12477,13 @@
         <v>1</v>
       </c>
       <c r="F258" s="27" t="s">
-        <v>658</v>
+        <v>791</v>
       </c>
       <c r="G258" s="27">
         <v>1</v>
       </c>
       <c r="H258" s="27">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="I258" s="28" t="s">
         <v>678</v>
@@ -12377,7 +12503,7 @@
         <v>258</v>
       </c>
       <c r="C259" s="28" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="D259" s="27">
         <v>-1</v>
@@ -12386,13 +12512,13 @@
         <v>1</v>
       </c>
       <c r="F259" s="27" t="s">
-        <v>658</v>
+        <v>792</v>
       </c>
       <c r="G259" s="27">
         <v>1</v>
       </c>
       <c r="H259" s="27">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="I259" s="28" t="s">
         <v>678</v>
@@ -12412,7 +12538,7 @@
         <v>259</v>
       </c>
       <c r="C260" s="28" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="D260" s="27">
         <v>-1</v>
@@ -12421,13 +12547,13 @@
         <v>1</v>
       </c>
       <c r="F260" s="27" t="s">
-        <v>658</v>
+        <v>793</v>
       </c>
       <c r="G260" s="27">
         <v>1</v>
       </c>
       <c r="H260" s="27">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="I260" s="28" t="s">
         <v>678</v>
@@ -12447,7 +12573,7 @@
         <v>260</v>
       </c>
       <c r="C261" s="28" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="D261" s="27">
         <v>-1</v>
@@ -12456,13 +12582,13 @@
         <v>1</v>
       </c>
       <c r="F261" s="27" t="s">
-        <v>658</v>
+        <v>796</v>
       </c>
       <c r="G261" s="27">
         <v>1</v>
       </c>
       <c r="H261" s="27">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I261" s="28" t="s">
         <v>678</v>
@@ -12482,7 +12608,7 @@
         <v>261</v>
       </c>
       <c r="C262" s="28" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="D262" s="27">
         <v>-1</v>
@@ -12491,13 +12617,13 @@
         <v>1</v>
       </c>
       <c r="F262" s="27" t="s">
-        <v>658</v>
+        <v>797</v>
       </c>
       <c r="G262" s="27">
         <v>1</v>
       </c>
       <c r="H262" s="27">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="I262" s="28" t="s">
         <v>678</v>
@@ -12517,7 +12643,7 @@
         <v>262</v>
       </c>
       <c r="C263" s="28" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="D263" s="27">
         <v>-1</v>
@@ -12526,13 +12652,13 @@
         <v>1</v>
       </c>
       <c r="F263" s="27" t="s">
-        <v>658</v>
+        <v>798</v>
       </c>
       <c r="G263" s="27">
         <v>1</v>
       </c>
       <c r="H263" s="27">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I263" s="28" t="s">
         <v>678</v>
@@ -12552,7 +12678,7 @@
         <v>263</v>
       </c>
       <c r="C264" s="28" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="D264" s="27">
         <v>-1</v>
@@ -12561,13 +12687,13 @@
         <v>1</v>
       </c>
       <c r="F264" s="27" t="s">
-        <v>658</v>
+        <v>799</v>
       </c>
       <c r="G264" s="27">
         <v>1</v>
       </c>
       <c r="H264" s="27">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="I264" s="28" t="s">
         <v>678</v>
@@ -12587,7 +12713,7 @@
         <v>264</v>
       </c>
       <c r="C265" s="28" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="D265" s="27">
         <v>-1</v>
@@ -12596,13 +12722,13 @@
         <v>1</v>
       </c>
       <c r="F265" s="27" t="s">
-        <v>658</v>
+        <v>794</v>
       </c>
       <c r="G265" s="27">
         <v>1</v>
       </c>
       <c r="H265" s="27">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="I265" s="28" t="s">
         <v>678</v>
@@ -12622,7 +12748,7 @@
         <v>265</v>
       </c>
       <c r="C266" s="28" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="D266" s="27">
         <v>-1</v>
@@ -12631,13 +12757,13 @@
         <v>1</v>
       </c>
       <c r="F266" s="27" t="s">
-        <v>658</v>
+        <v>795</v>
       </c>
       <c r="G266" s="27">
         <v>1</v>
       </c>
       <c r="H266" s="27">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="I266" s="28" t="s">
         <v>678</v>
@@ -12657,7 +12783,7 @@
         <v>266</v>
       </c>
       <c r="C267" s="28" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="D267" s="27">
         <v>-1</v>
@@ -12666,13 +12792,13 @@
         <v>1</v>
       </c>
       <c r="F267" s="27" t="s">
-        <v>658</v>
+        <v>800</v>
       </c>
       <c r="G267" s="27">
         <v>1</v>
       </c>
       <c r="H267" s="27">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I267" s="28" t="s">
         <v>678</v>
@@ -12692,7 +12818,7 @@
         <v>267</v>
       </c>
       <c r="C268" s="28" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="D268" s="27">
         <v>-1</v>
@@ -12701,13 +12827,13 @@
         <v>1</v>
       </c>
       <c r="F268" s="27" t="s">
-        <v>658</v>
+        <v>801</v>
       </c>
       <c r="G268" s="27">
         <v>1</v>
       </c>
       <c r="H268" s="27">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I268" s="28" t="s">
         <v>678</v>
@@ -12727,7 +12853,7 @@
         <v>268</v>
       </c>
       <c r="C269" s="28" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="D269" s="27">
         <v>-1</v>
@@ -12736,13 +12862,13 @@
         <v>1</v>
       </c>
       <c r="F269" s="27" t="s">
-        <v>658</v>
+        <v>802</v>
       </c>
       <c r="G269" s="27">
         <v>1</v>
       </c>
       <c r="H269" s="27">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I269" s="28" t="s">
         <v>678</v>
@@ -12762,7 +12888,7 @@
         <v>269</v>
       </c>
       <c r="C270" s="28" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="D270" s="27">
         <v>-1</v>
@@ -12771,13 +12897,13 @@
         <v>1</v>
       </c>
       <c r="F270" s="27" t="s">
-        <v>658</v>
+        <v>803</v>
       </c>
       <c r="G270" s="27">
         <v>1</v>
       </c>
       <c r="H270" s="27">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I270" s="28" t="s">
         <v>678</v>
@@ -12797,7 +12923,7 @@
         <v>270</v>
       </c>
       <c r="C271" s="28" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="D271" s="27">
         <v>-1</v>
@@ -12806,13 +12932,13 @@
         <v>1</v>
       </c>
       <c r="F271" s="27" t="s">
-        <v>658</v>
+        <v>804</v>
       </c>
       <c r="G271" s="27">
         <v>1</v>
       </c>
       <c r="H271" s="27">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I271" s="28" t="s">
         <v>678</v>
@@ -12832,7 +12958,7 @@
         <v>271</v>
       </c>
       <c r="C272" s="28" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="D272" s="27">
         <v>-1</v>
@@ -12841,13 +12967,13 @@
         <v>1</v>
       </c>
       <c r="F272" s="27" t="s">
-        <v>658</v>
+        <v>805</v>
       </c>
       <c r="G272" s="27">
         <v>1</v>
       </c>
       <c r="H272" s="27">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="I272" s="28" t="s">
         <v>678</v>
@@ -12867,7 +12993,7 @@
         <v>272</v>
       </c>
       <c r="C273" s="28" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="D273" s="27">
         <v>-1</v>
@@ -12876,13 +13002,13 @@
         <v>1</v>
       </c>
       <c r="F273" s="27" t="s">
-        <v>658</v>
+        <v>806</v>
       </c>
       <c r="G273" s="27">
         <v>1</v>
       </c>
       <c r="H273" s="27">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="I273" s="28" t="s">
         <v>678</v>
@@ -12902,7 +13028,7 @@
         <v>273</v>
       </c>
       <c r="C274" s="28" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="D274" s="27">
         <v>-1</v>
@@ -12911,13 +13037,13 @@
         <v>1</v>
       </c>
       <c r="F274" s="27" t="s">
-        <v>658</v>
+        <v>807</v>
       </c>
       <c r="G274" s="27">
         <v>1</v>
       </c>
       <c r="H274" s="27">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="I274" s="28" t="s">
         <v>678</v>
@@ -12937,7 +13063,7 @@
         <v>274</v>
       </c>
       <c r="C275" s="28" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="D275" s="27">
         <v>-1</v>
@@ -12946,13 +13072,13 @@
         <v>1</v>
       </c>
       <c r="F275" s="27" t="s">
-        <v>658</v>
+        <v>808</v>
       </c>
       <c r="G275" s="27">
         <v>1</v>
       </c>
       <c r="H275" s="27">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I275" s="28" t="s">
         <v>678</v>
@@ -12972,7 +13098,7 @@
         <v>275</v>
       </c>
       <c r="C276" s="28" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="D276" s="27">
         <v>-1</v>
@@ -12981,13 +13107,13 @@
         <v>1</v>
       </c>
       <c r="F276" s="27" t="s">
-        <v>658</v>
+        <v>809</v>
       </c>
       <c r="G276" s="27">
         <v>1</v>
       </c>
       <c r="H276" s="27">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="I276" s="28" t="s">
         <v>678</v>
@@ -13007,7 +13133,7 @@
         <v>276</v>
       </c>
       <c r="C277" s="28" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="D277" s="27">
         <v>-1</v>
@@ -13016,13 +13142,13 @@
         <v>1</v>
       </c>
       <c r="F277" s="27" t="s">
-        <v>658</v>
+        <v>810</v>
       </c>
       <c r="G277" s="27">
         <v>1</v>
       </c>
       <c r="H277" s="27">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I277" s="28" t="s">
         <v>678</v>
@@ -13042,7 +13168,7 @@
         <v>277</v>
       </c>
       <c r="C278" s="28" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="D278" s="27">
         <v>-1</v>
@@ -13051,13 +13177,13 @@
         <v>1</v>
       </c>
       <c r="F278" s="27" t="s">
-        <v>658</v>
+        <v>811</v>
       </c>
       <c r="G278" s="27">
         <v>1</v>
       </c>
       <c r="H278" s="27">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I278" s="28" t="s">
         <v>678</v>
@@ -13077,7 +13203,7 @@
         <v>278</v>
       </c>
       <c r="C279" s="28" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="D279" s="27">
         <v>-1</v>
@@ -13086,13 +13212,13 @@
         <v>1</v>
       </c>
       <c r="F279" s="27" t="s">
-        <v>658</v>
+        <v>812</v>
       </c>
       <c r="G279" s="27">
         <v>1</v>
       </c>
       <c r="H279" s="27">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I279" s="28" t="s">
         <v>678</v>
@@ -13112,7 +13238,7 @@
         <v>279</v>
       </c>
       <c r="C280" s="28" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="D280" s="27">
         <v>-1</v>
@@ -13121,13 +13247,13 @@
         <v>1</v>
       </c>
       <c r="F280" s="27" t="s">
-        <v>658</v>
+        <v>813</v>
       </c>
       <c r="G280" s="27">
         <v>1</v>
       </c>
       <c r="H280" s="27">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I280" s="28" t="s">
         <v>678</v>
@@ -13147,7 +13273,7 @@
         <v>280</v>
       </c>
       <c r="C281" s="28" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="D281" s="27">
         <v>-1</v>
@@ -13156,13 +13282,13 @@
         <v>1</v>
       </c>
       <c r="F281" s="27" t="s">
-        <v>658</v>
+        <v>814</v>
       </c>
       <c r="G281" s="27">
         <v>1</v>
       </c>
       <c r="H281" s="27">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I281" s="28" t="s">
         <v>678</v>
@@ -13174,68 +13300,173 @@
         <v>16</v>
       </c>
     </row>
-    <row r="282" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A282" s="29">
+    <row r="282" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A282" s="27">
         <v>281</v>
       </c>
-      <c r="B282" s="29">
+      <c r="B282" s="27">
         <v>281</v>
       </c>
-      <c r="C282" s="30" t="s">
+      <c r="C282" s="28" t="s">
+        <v>712</v>
+      </c>
+      <c r="D282" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E282" s="27">
+        <v>1</v>
+      </c>
+      <c r="F282" s="27" t="s">
+        <v>815</v>
+      </c>
+      <c r="G282" s="27">
+        <v>1</v>
+      </c>
+      <c r="H282" s="27">
+        <v>98</v>
+      </c>
+      <c r="I282" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J282" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N282" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="283" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A283" s="27">
+        <v>282</v>
+      </c>
+      <c r="B283" s="27">
+        <v>282</v>
+      </c>
+      <c r="C283" s="28" t="s">
+        <v>713</v>
+      </c>
+      <c r="D283" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E283" s="27">
+        <v>1</v>
+      </c>
+      <c r="F283" s="27" t="s">
+        <v>816</v>
+      </c>
+      <c r="G283" s="27">
+        <v>1</v>
+      </c>
+      <c r="H283" s="27">
+        <v>99</v>
+      </c>
+      <c r="I283" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J283" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N283" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="284" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A284" s="27">
+        <v>283</v>
+      </c>
+      <c r="B284" s="27">
+        <v>283</v>
+      </c>
+      <c r="C284" s="28" t="s">
+        <v>821</v>
+      </c>
+      <c r="D284" s="27">
+        <v>-1</v>
+      </c>
+      <c r="E284" s="27">
+        <v>1</v>
+      </c>
+      <c r="F284" s="28" t="s">
+        <v>819</v>
+      </c>
+      <c r="G284" s="27">
+        <v>1</v>
+      </c>
+      <c r="H284" s="27">
+        <v>99</v>
+      </c>
+      <c r="I284" s="28" t="s">
+        <v>678</v>
+      </c>
+      <c r="J284" s="28" t="s">
+        <v>682</v>
+      </c>
+      <c r="N284" s="27">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="285" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A285" s="27">
+        <v>284</v>
+      </c>
+      <c r="B285" s="27">
+        <v>284</v>
+      </c>
+      <c r="C285" s="30" t="s">
+        <v>776</v>
+      </c>
+      <c r="D285" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E285" s="29">
+        <v>1</v>
+      </c>
+      <c r="F285" s="30" t="s">
         <v>777</v>
       </c>
-      <c r="D282" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E282" s="29">
-        <v>1</v>
-      </c>
-      <c r="F282" s="30" t="s">
+      <c r="G285" s="29">
+        <v>0</v>
+      </c>
+      <c r="H285" s="29">
+        <v>33</v>
+      </c>
+      <c r="I285" s="30" t="s">
+        <v>775</v>
+      </c>
+      <c r="J285" s="30" t="s">
         <v>778</v>
       </c>
-      <c r="G282" s="29">
+    </row>
+    <row r="286" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A286" s="27">
+        <v>285</v>
+      </c>
+      <c r="B286" s="27">
+        <v>285</v>
+      </c>
+      <c r="C286" s="30" t="s">
+        <v>781</v>
+      </c>
+      <c r="D286" s="29">
+        <v>-1</v>
+      </c>
+      <c r="E286" s="29">
+        <v>1</v>
+      </c>
+      <c r="F286" s="29" t="s">
+        <v>602</v>
+      </c>
+      <c r="G286" s="29">
         <v>0</v>
       </c>
-      <c r="H282" s="29">
+      <c r="H286" s="29">
         <v>33</v>
       </c>
-      <c r="I282" s="30" t="s">
-        <v>776</v>
-      </c>
-      <c r="J282" s="30" t="s">
+      <c r="I286" s="29" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="283" spans="1:14" s="29" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A283" s="29">
-        <v>282</v>
-      </c>
-      <c r="B283" s="29">
-        <v>282</v>
-      </c>
-      <c r="C283" s="30" t="s">
-        <v>782</v>
-      </c>
-      <c r="D283" s="29">
-        <v>-1</v>
-      </c>
-      <c r="E283" s="29">
-        <v>1</v>
-      </c>
-      <c r="F283" s="29" t="s">
-        <v>602</v>
-      </c>
-      <c r="G283" s="29">
-        <v>0</v>
-      </c>
-      <c r="H283" s="29">
-        <v>33</v>
-      </c>
-      <c r="I283" s="29" t="s">
+      <c r="J286" s="29" t="s">
         <v>780</v>
-      </c>
-      <c r="J283" s="29" t="s">
-        <v>781</v>
       </c>
     </row>
   </sheetData>

--- a/config_12.08/item_config.xlsx
+++ b/config_12.08/item_config.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_12.08\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_12.08\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -3622,9 +3622,9 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:Q283"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A269" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C283" sqref="C283"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A152" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N157" sqref="N157:N171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -8406,7 +8406,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -8438,7 +8438,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="146" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A146" s="11">
         <v>145</v>
       </c>
@@ -8470,7 +8470,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="147" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>146</v>
       </c>
@@ -8502,7 +8502,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="148" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>147</v>
       </c>
@@ -8534,7 +8534,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="149" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A149" s="11">
         <v>148</v>
       </c>
@@ -8566,7 +8566,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="150" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A150" s="11">
         <v>149</v>
       </c>
@@ -8598,7 +8598,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="151" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A151" s="11">
         <v>150</v>
       </c>
@@ -8630,7 +8630,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="152" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A152" s="11">
         <v>151</v>
       </c>
@@ -8662,7 +8662,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="153" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A153" s="11">
         <v>152</v>
       </c>
@@ -8694,7 +8694,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="154" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A154" s="11">
         <v>153</v>
       </c>
@@ -8726,7 +8726,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="155" spans="1:12" s="11" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:14" s="11" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A155" s="11">
         <v>154</v>
       </c>
@@ -8758,7 +8758,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="156" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A156" s="11">
         <v>155</v>
       </c>
@@ -8790,7 +8790,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="157" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A157" s="11">
         <v>156</v>
       </c>
@@ -8824,8 +8824,11 @@
       <c r="L157" s="12" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="158" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N157" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A158" s="11">
         <v>157</v>
       </c>
@@ -8859,8 +8862,11 @@
       <c r="L158" s="12" t="s">
         <v>574</v>
       </c>
-    </row>
-    <row r="159" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N158" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A159" s="11">
         <v>158</v>
       </c>
@@ -8894,8 +8900,11 @@
       <c r="L159" s="12" t="s">
         <v>575</v>
       </c>
-    </row>
-    <row r="160" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N159" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A160" s="11">
         <v>159</v>
       </c>
@@ -8929,8 +8938,11 @@
       <c r="L160" s="12" t="s">
         <v>617</v>
       </c>
-    </row>
-    <row r="161" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N160" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="161" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A161" s="11">
         <v>160</v>
       </c>
@@ -8964,8 +8976,11 @@
       <c r="L161" s="12" t="s">
         <v>618</v>
       </c>
-    </row>
-    <row r="162" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N161" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="162" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A162" s="11">
         <v>161</v>
       </c>
@@ -8996,8 +9011,11 @@
       <c r="J162" s="12" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="163" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N162" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="163" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A163" s="11">
         <v>162</v>
       </c>
@@ -9028,8 +9046,11 @@
       <c r="J163" s="12" t="s">
         <v>567</v>
       </c>
-    </row>
-    <row r="164" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N163" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="164" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A164" s="11">
         <v>163</v>
       </c>
@@ -9060,8 +9081,11 @@
       <c r="J164" s="12" t="s">
         <v>568</v>
       </c>
-    </row>
-    <row r="165" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N164" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="165" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A165" s="11">
         <v>164</v>
       </c>
@@ -9092,8 +9116,11 @@
       <c r="J165" s="12" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="166" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N165" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="166" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A166" s="11">
         <v>165</v>
       </c>
@@ -9124,8 +9151,11 @@
       <c r="J166" s="12" t="s">
         <v>621</v>
       </c>
-    </row>
-    <row r="167" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N166" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="167" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A167" s="11">
         <v>166</v>
       </c>
@@ -9156,8 +9186,11 @@
       <c r="J167" s="12" t="s">
         <v>569</v>
       </c>
-    </row>
-    <row r="168" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N167" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="168" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A168" s="11">
         <v>167</v>
       </c>
@@ -9188,8 +9221,11 @@
       <c r="J168" s="12" t="s">
         <v>570</v>
       </c>
-    </row>
-    <row r="169" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N168" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="169" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A169" s="11">
         <v>168</v>
       </c>
@@ -9220,8 +9256,11 @@
       <c r="J169" s="12" t="s">
         <v>571</v>
       </c>
-    </row>
-    <row r="170" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N169" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A170" s="11">
         <v>169</v>
       </c>
@@ -9252,8 +9291,11 @@
       <c r="J170" s="12" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="171" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N170" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="171" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A171" s="11">
         <v>170</v>
       </c>
@@ -9284,8 +9326,11 @@
       <c r="J171" s="12" t="s">
         <v>625</v>
       </c>
-    </row>
-    <row r="172" spans="1:12" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="N171" s="11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="172" spans="1:14" s="11" customFormat="1" ht="16.5" x14ac:dyDescent="0.2">
       <c r="A172" s="11">
         <v>171</v>
       </c>
@@ -9317,7 +9362,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="173" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A173" s="11">
         <v>172</v>
       </c>
@@ -9349,7 +9394,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="174" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A174" s="11">
         <v>173</v>
       </c>
@@ -9381,7 +9426,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="175" spans="1:12" s="13" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:14" s="13" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A175" s="11">
         <v>174</v>
       </c>
@@ -9413,7 +9458,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="176" spans="1:12" s="23" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A176" s="11">
         <v>175</v>
       </c>
